--- a/SI_data.xlsx
+++ b/SI_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albif\Dropbox\Manuscripts\Multicellular modules\Version 3 20-04-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B681D7-2BD1-4129-87DF-AEA2DEF9690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D335D94-C58D-4BA2-B286-A4F41FA16D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F8DDCF30-53D3-4FB1-B091-A7F07E243406}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8DDCF30-53D3-4FB1-B091-A7F07E243406}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure SI 1" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <sheet name="Figure SI 10" sheetId="5" r:id="rId5"/>
     <sheet name="Figure SI 12" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="94">
   <si>
     <t>Steady State (10 hours)</t>
   </si>
@@ -396,6 +390,33 @@
   <si>
     <t>Normalized value</t>
   </si>
+  <si>
+    <t>ST DEV</t>
+  </si>
+  <si>
+    <t>IAA10uM</t>
+  </si>
+  <si>
+    <t>IAAAsp10uM</t>
+  </si>
+  <si>
+    <t>YFP-IAA17</t>
+  </si>
+  <si>
+    <t>Repeat 1</t>
+  </si>
+  <si>
+    <t>Repeat 3</t>
+  </si>
+  <si>
+    <t>Repeat 2</t>
+  </si>
+  <si>
+    <t>PGP1+iaaH + YFP-IAA17</t>
+  </si>
+  <si>
+    <t>iaaH + YFP-IAA17</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,6 +502,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +579,10 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1137823820333112E-3</c:v>
+                    <c:v>7.8836067460706677E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14198095118699214</c:v>
+                    <c:v>0.13539561656768684</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -575,10 +597,10 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1137823820333112E-3</c:v>
+                    <c:v>7.8836067460706677E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.14198095118699214</c:v>
+                    <c:v>0.13539561656768684</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -624,10 +646,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9467600581635105</c:v>
+                  <c:v>0.92909503666483817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89960430661636148</c:v>
+                  <c:v>0.84620469978348944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,13 +695,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.1694138978944616</c:v>
+                    <c:v>0.17933345217659252</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.868652801103915E-2</c:v>
+                    <c:v>8.9704586069197539E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.15650836475043164</c:v>
+                    <c:v>8.7995097133470132E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -691,13 +713,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.1694138978944616</c:v>
+                    <c:v>0.17933345217659252</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.868652801103915E-2</c:v>
+                    <c:v>8.9704586069197539E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.15650836475043164</c:v>
+                    <c:v>8.7995097133470132E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -740,13 +762,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0713546119462136</c:v>
+                  <c:v>1.0467352899604057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74767229914000377</c:v>
+                  <c:v>0.73176985621743518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.440658003638564</c:v>
+                  <c:v>0.47523571698578476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5260,6 +5282,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Figure SI 2'!$F$7:$H$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.6896122423794361E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.248669228964142E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.3206366230059586E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Figure SI 2'!$F$7:$H$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.6896122423794361E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.248669228964142E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.3206366230059586E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Figure SI 2'!$F$4:$H$4</c:f>
@@ -5287,10 +5363,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29737402413058905</c:v>
+                  <c:v>0.32124167179499485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97894487816418263</c:v>
+                  <c:v>0.97108213284368838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18913,274 +18989,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sensors"/>
-      <sheetName val="Library"/>
-      <sheetName val="PGP1 story"/>
-      <sheetName val="IAA-Asp story"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="13">
-          <cell r="L13" t="str">
-            <v>Sensor</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14" t="str">
-            <v>Sensor + Sender (iaaH)</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15" t="str">
-            <v>Sensor + Sender (iaaH+PGP1)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="J9" t="str">
-            <v>Control</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>IAA</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>IAA-Asp</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Figure1"/>
-      <sheetName val="SI - strains not used"/>
-      <sheetName val="Figure2"/>
-      <sheetName val="Figure3"/>
-      <sheetName val="Figure4"/>
-      <sheetName val="Figure 5"/>
-      <sheetName val="Logic gates"/>
-      <sheetName val="Logic gates Final"/>
-      <sheetName val="Logic Gates adjusted"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="PGP1 pump"/>
-      <sheetName val="IAA-Asp"/>
-      <sheetName val="GH3 - IAA quantisation"/>
-      <sheetName val="AllChains"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="NonMonotonicBehaviors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="38">
-          <cell r="K38">
-            <v>4.8445169637731156E-4</v>
-          </cell>
-          <cell r="L38">
-            <v>8.83091009172176E-5</v>
-          </cell>
-          <cell r="M38">
-            <v>3.510993850168358E-4</v>
-          </cell>
-          <cell r="N38">
-            <v>2.9451985709217862E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8">
-        <row r="11">
-          <cell r="T11">
-            <v>9.090488004765886</v>
-          </cell>
-          <cell r="U11">
-            <v>19.374513294349136</v>
-          </cell>
-          <cell r="V11">
-            <v>22.911265634721651</v>
-          </cell>
-          <cell r="W11">
-            <v>26.497055232976457</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="T15">
-            <v>9.9917408922224329</v>
-          </cell>
-          <cell r="U15">
-            <v>15.182072820941674</v>
-          </cell>
-          <cell r="V15">
-            <v>21.855208917808024</v>
-          </cell>
-          <cell r="W15">
-            <v>22.319351814431467</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38" t="str">
-            <v>(0,0)</v>
-          </cell>
-          <cell r="F38" t="str">
-            <v>(0,β)</v>
-          </cell>
-          <cell r="G38" t="str">
-            <v>(α,0)</v>
-          </cell>
-          <cell r="H38" t="str">
-            <v>(α,β)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>WT</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>GH3.3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>GH3.6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Figure 1"/>
-      <sheetName val="Figure 2"/>
-      <sheetName val="Figure 3"/>
-      <sheetName val="Figure 4"/>
-      <sheetName val="Figure 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20-07-01_Bistability_Test2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="60">
-          <cell r="L60" t="str">
-            <v>2 strains</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>0</v>
-          </cell>
-          <cell r="L61">
-            <v>4.0114574134349802E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>3</v>
-          </cell>
-          <cell r="L62">
-            <v>3.8648504763841601E-2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>5</v>
-          </cell>
-          <cell r="L63">
-            <v>3.7411876022815697E-2</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>7</v>
-          </cell>
-          <cell r="L64">
-            <v>2.9197901487350401E-2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>9</v>
-          </cell>
-          <cell r="L65">
-            <v>1.95823069661855E-2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>11</v>
-          </cell>
-          <cell r="L66">
-            <v>1.8655404448509199E-2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>13</v>
-          </cell>
-          <cell r="L67">
-            <v>2.2532757371663999E-2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>15</v>
-          </cell>
-          <cell r="L68">
-            <v>2.67829820513725E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19478,15 +19286,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60CE349-6028-4F68-A31D-42293ED9B039}">
-  <dimension ref="D4:I8"/>
+  <dimension ref="D4:V18"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>17</v>
       </c>
@@ -19494,7 +19302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>31</v>
       </c>
@@ -19508,7 +19316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>33</v>
       </c>
@@ -19516,47 +19324,205 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.0713546119462136</v>
+        <v>1.0467352899604057</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1694138978944616</v>
+        <v>0.17933345217659252</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7">
-        <v>0.9467600581635105</v>
+        <v>0.92909503666483817</v>
       </c>
       <c r="F7">
-        <v>0.74767229914000377</v>
+        <v>0.73176985621743518</v>
       </c>
       <c r="H7">
-        <v>1.1137823820333112E-3</v>
+        <v>7.8836067460706677E-2</v>
       </c>
       <c r="I7">
-        <v>5.868652801103915E-2</v>
+        <v>8.9704586069197539E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8">
-        <v>0.89960430661636148</v>
+        <v>0.84620469978348944</v>
       </c>
       <c r="F8">
-        <v>0.440658003638564</v>
+        <v>0.47523571698578476</v>
       </c>
       <c r="H8">
-        <v>0.14198095118699214</v>
+        <v>0.13539561656768684</v>
       </c>
       <c r="I8">
-        <v>0.15650836475043164</v>
+        <v>8.7995097133470132E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1.0123590763851209</v>
+      </c>
+      <c r="R13">
+        <v>0.94597249508840864</v>
+      </c>
+      <c r="S13">
+        <v>0.78916994106090377</v>
+      </c>
+      <c r="U13">
+        <v>0.98197383493097001</v>
+      </c>
+      <c r="V13">
+        <v>0.54138783384578282</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0.88707828365542085</v>
+      </c>
+      <c r="R14">
+        <v>0.84318702915165411</v>
+      </c>
+      <c r="S14">
+        <v>0.62839829675728787</v>
+      </c>
+      <c r="U14">
+        <v>0.71118571896495253</v>
+      </c>
+      <c r="V14">
+        <v>0.37536849000982642</v>
+      </c>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1.2407685098406749</v>
+      </c>
+      <c r="R15">
+        <v>0.99812558575445176</v>
+      </c>
+      <c r="S15">
+        <v>0.77774133083411434</v>
+      </c>
+      <c r="U15">
+        <v>0.84545454545454546</v>
+      </c>
+      <c r="V15">
+        <v>0.50895082710174488</v>
+      </c>
+    </row>
+    <row r="17" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(O13:O15)</f>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f>AVERAGE(P13:P15)</f>
+        <v>1.0467352899604057</v>
+      </c>
+      <c r="R17">
+        <f>AVERAGE(R13:R15)</f>
+        <v>0.92909503666483817</v>
+      </c>
+      <c r="S17">
+        <f>AVERAGE(S13:S15)</f>
+        <v>0.73176985621743518</v>
+      </c>
+      <c r="U17">
+        <f>AVERAGE(U13:U15)</f>
+        <v>0.84620469978348944</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGE(V13:V15)</f>
+        <v>0.47523571698578476</v>
+      </c>
+    </row>
+    <row r="18" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18">
+        <f>STDEV(O13:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>STDEV(P13:P15)</f>
+        <v>0.17933345217659252</v>
+      </c>
+      <c r="R18">
+        <f>STDEV(R13:R15)</f>
+        <v>7.8836067460706677E-2</v>
+      </c>
+      <c r="S18">
+        <f>STDEV(S13:S15)</f>
+        <v>8.9704586069197539E-2</v>
+      </c>
+      <c r="U18">
+        <f>STDEV(U13:U15)</f>
+        <v>0.13539561656768684</v>
+      </c>
+      <c r="V18">
+        <f>STDEV(V13:V15)</f>
+        <v>8.7995097133470132E-2</v>
       </c>
     </row>
   </sheetData>
@@ -19567,15 +19533,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DB4799-19BA-40B3-92FF-85196E96A302}">
-  <dimension ref="E4:Q7"/>
+  <dimension ref="C2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>31</v>
       </c>
@@ -19599,18 +19570,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5">
-        <v>4227</v>
+        <v>47.546851997792764</v>
       </c>
       <c r="G5">
-        <v>1257</v>
+        <v>15.274030224360137</v>
       </c>
       <c r="H5">
-        <v>4138</v>
+        <v>46.171898448019782</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
@@ -19626,7 +19597,7 @@
         <v>4.5817301239318153E-3</v>
       </c>
     </row>
-    <row r="6" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>84</v>
       </c>
@@ -19634,10 +19605,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.29737402413058905</v>
+        <v>0.32124167179499485</v>
       </c>
       <c r="H6">
-        <v>0.97894487816418263</v>
+        <v>0.97108213284368838</v>
       </c>
       <c r="N6" t="s">
         <v>43</v>
@@ -19653,7 +19624,19 @@
         <v>8.9924162039250568</v>
       </c>
     </row>
-    <row r="7" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>7.6896122423794361E-3</v>
+      </c>
+      <c r="G7">
+        <v>4.248669228964142E-3</v>
+      </c>
+      <c r="H7">
+        <v>8.3206366230059586E-3</v>
+      </c>
       <c r="N7" t="s">
         <v>44</v>
       </c>
@@ -19666,6 +19649,62 @@
       <c r="Q7">
         <f t="shared" si="0"/>
         <v>7.81655394619946</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>46.338463270439362</v>
+      </c>
+      <c r="G27">
+        <v>14.472800296934603</v>
+      </c>
+      <c r="H27">
+        <v>45.477146539082966</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>46.969018512053147</v>
+      </c>
+      <c r="G28">
+        <v>14.068927516895677</v>
+      </c>
+      <c r="H28">
+        <v>45.313609158040876</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>46.333074210885762</v>
+      </c>
+      <c r="G29">
+        <v>14.280362859250133</v>
+      </c>
+      <c r="H29">
+        <v>44.72493964693551</v>
       </c>
     </row>
   </sheetData>
@@ -20470,7 +20509,7 @@
   <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SI_data.xlsx
+++ b/SI_data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albif\Dropbox\Manuscripts\Multicellular modules\Version 3 20-04-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albif\Dropbox\Manuscripts\Multicellular modules\Manuscript Revision - January 2022\SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D335D94-C58D-4BA2-B286-A4F41FA16D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429AE3C-F3D6-428D-B3E5-2A9DA34F5E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8DDCF30-53D3-4FB1-B091-A7F07E243406}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{F8DDCF30-53D3-4FB1-B091-A7F07E243406}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure SI 1" sheetId="2" r:id="rId1"/>
     <sheet name="Figure SI 2" sheetId="3" r:id="rId2"/>
     <sheet name="Figure SI 6" sheetId="1" r:id="rId3"/>
     <sheet name="Figure SI 7" sheetId="4" r:id="rId4"/>
-    <sheet name="Figure SI 10" sheetId="5" r:id="rId5"/>
-    <sheet name="Figure SI 12" sheetId="6" r:id="rId6"/>
+    <sheet name="Figure SI 9" sheetId="5" r:id="rId5"/>
+    <sheet name="Figure SI 10" sheetId="6" r:id="rId6"/>
+    <sheet name="Figure SI 11" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="118">
   <si>
     <t>Steady State (10 hours)</t>
   </si>
@@ -417,12 +418,158 @@
   <si>
     <t>iaaH + YFP-IAA17</t>
   </si>
+  <si>
+    <t>VarCoeff</t>
+  </si>
+  <si>
+    <t>alpha1uM+IAA10uM</t>
+  </si>
+  <si>
+    <t>beta100nM+IAA10uM</t>
+  </si>
+  <si>
+    <t>beta-|GFP</t>
+  </si>
+  <si>
+    <t>1μM α-factor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100nM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β-estr</t>
+    </r>
+  </si>
+  <si>
+    <t>10μM IAA</t>
+  </si>
+  <si>
+    <t>IAA10μM+1μM α-factor</t>
+  </si>
+  <si>
+    <t>IAA10μM+100nM β-estr</t>
+  </si>
+  <si>
+    <t>1μM α-factor+10μM IAA</t>
+  </si>
+  <si>
+    <t>1μM α-factor+100nM β-estr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100nM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β-estr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10μM IAA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100nM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β-estr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1μM α-factor</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentage difference</t>
+  </si>
+  <si>
+    <t>T-test</t>
+  </si>
+  <si>
+    <t>5μM IAA</t>
+  </si>
+  <si>
+    <t>5μM IAA+1μM α-factor</t>
+  </si>
+  <si>
+    <t>10μM IAA+1μM α-factor</t>
+  </si>
+  <si>
+    <t>10μM IAA+100nM β-estr</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>100nM IAA</t>
+  </si>
+  <si>
+    <t>500nM IAA</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M IAA</t>
+    </r>
+  </si>
+  <si>
+    <t>no IAA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +619,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -493,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -503,6 +670,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7722,6 +7897,1384 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>β</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>-estr repressing GFP sensor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Figure SI 11'!$I$30:$I$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.63822276923940657</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6815578886585008</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.34250685278826831</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.17486712799406287</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.3025438569907141E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8754236290050564E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Figure SI 11'!$I$30:$I$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.63822276923940657</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6815578886585008</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.34250685278826831</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.17486712799406287</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.3025438569907141E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.8754236290050564E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Figure SI 11'!$G$30:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10μM IAA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1μM α-factor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100nM β-estr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100nM β-estr+10μM IAA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100nM β-estr+1μM α-factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure SI 11'!$H$30:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24.578801448946525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.133598694141778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.169186506732334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9916101912300945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3097530770187542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1248788578080657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE24-44CD-9F24-74E321A8CFC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1289576335"/>
+        <c:axId val="1289559279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1289576335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289559279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1289559279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500"/>
+                  <a:t>Relative Mean Fluorescence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289576335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600">
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>-factor repressing GFP sensor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Figure SI 11'!$I$18:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.4033692890928395</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8548536687661905</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2728862904273905</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0346312806516437E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5145155937162711E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10283337502409849</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Figure SI 11'!$I$18:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.4033692890928395</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8548536687661905</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2728862904273905</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0346312806516437E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5145155937162711E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10283337502409849</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Figure SI 11'!$G$18:$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10μM IAA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100nM β-estr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1μM α-factor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1μM α-factor+10μM IAA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1μM α-factor+100nM β-estr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure SI 11'!$H$18:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20.629752172065015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.01513678878171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.339713640110439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9008317573964266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0701324926738378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0742404257971883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C8A-4206-B377-569A59738B46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1279108815"/>
+        <c:axId val="1279109231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1279108815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279109231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1279109231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500"/>
+                  <a:t>Relative Mean Fluorescence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279108815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>IAA repressing GFP sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13254430428439962"/>
+          <c:y val="0.1177005853123468"/>
+          <c:w val="0.77485434106531492"/>
+          <c:h val="0.49060441061846377"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Figure SI 11'!$I$6:$I$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.2920975953822662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0295634323582479</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6524919151758848</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2241674432512697</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.60310108448131539</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.394425162509664E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Figure SI 11'!$I$6:$I$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.2920975953822662</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0295634323582479</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6524919151758848</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2241674432512697</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.60310108448131539</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.394425162509664E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Figure SI 11'!$G$6:$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1μM α-factor</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100nM β-estr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10μM IAA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10μM IAA+1μM α-factor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10μM IAA+100nM β-estr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure SI 11'!$H$6:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>89.22092810518177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.07193146178146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.405003698455857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.124269185267661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.755019664326973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.229533945179739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-782A-45F6-924C-BEF4D7916E43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1289563023"/>
+        <c:axId val="1289584239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1289563023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289584239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1289584239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500"/>
+                  <a:t>Relative Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" baseline="0"/>
+                  <a:t> Fluorescence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1500"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289563023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8043,6 +9596,485 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>IAA repressing GFP sensor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Just IAA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Figure SI 11'!$I$54,'Figure SI 11'!$I$56,'Figure SI 11'!$I$58,'Figure SI 11'!$I$60,'Figure SI 11'!$I$62)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.51592961569259044</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.007557757911341E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.80379016486830923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.61567354491634196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1793036401231167</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Figure SI 11'!$I$54,'Figure SI 11'!$I$56,'Figure SI 11'!$I$58,'Figure SI 11'!$I$60,'Figure SI 11'!$I$62)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.51592961569259044</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.007557757911341E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.80379016486830923</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.61567354491634196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1793036401231167</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Figure SI 11'!$G$54,'Figure SI 11'!$G$56,'Figure SI 11'!$G$58,'Figure SI 11'!$G$60,'Figure SI 11'!$G$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100nM IAA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500nM IAA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1μM IAA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5μM IAA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Figure SI 11'!$H$54,'Figure SI 11'!$H$56,'Figure SI 11'!$H$58,'Figure SI 11'!$H$60,'Figure SI 11'!$H$62)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.053497677446387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.83656095938062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.057704983225939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.398481749319586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.55221684095994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5FF-4715-B314-69D3BEC970D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IAA + 1μM α-factor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Figure SI 11'!$I$55,'Figure SI 11'!$I$57,'Figure SI 11'!$I$59,'Figure SI 11'!$I$61,'Figure SI 11'!$I$63)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.63853053699743323</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0288639547033587</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Figure SI 11'!$I$55,'Figure SI 11'!$I$57,'Figure SI 11'!$I$59,'Figure SI 11'!$I$61,'Figure SI 11'!$I$63)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.63853053699743323</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0288639547033587</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Figure SI 11'!$G$55,'Figure SI 11'!$G$57,'Figure SI 11'!$G$59,'Figure SI 11'!$G$61,'Figure SI 11'!$G$63)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100nM IAA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500nM IAA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1μM IAA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5μM IAA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Figure SI 11'!$H$55,'Figure SI 11'!$H$57,'Figure SI 11'!$H$59,'Figure SI 11'!$H$61,'Figure SI 11'!$H$63)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.083951223594489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.811331053167656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.464004607027931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.82020149912017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.953307465100432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5FF-4715-B314-69D3BEC970D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="680488687"/>
+        <c:axId val="680495759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="680488687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680495759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="680495759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Relative Mean Fluorescence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1500">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680488687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -12071,6 +14103,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13907,6 +16059,1515 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -18989,6 +22650,157 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492033</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>96881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>591093</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>89261</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBD0650-78B5-4F8B-A949-AA733E067D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463731</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>547551</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD4DE00-E720-44B2-AAFD-897A59874535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>491860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3376E31-5EBD-4223-AD7F-3F7A088822AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>401781</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2482F1-4E55-478D-8D23-75D5AC04BDC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19288,7 +23100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60CE349-6028-4F68-A31D-42293ED9B039}">
   <dimension ref="D4:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -20630,7 +24442,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26105,4 +29917,1035 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC88729-8DFF-4A89-9668-CD73FD54ABEC}">
+  <dimension ref="B3:N63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>86.638830441160394</v>
+      </c>
+      <c r="D6">
+        <v>91.015256309756737</v>
+      </c>
+      <c r="E6">
+        <v>90.008697564628164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(C6:E6)</f>
+        <v>89.22092810518177</v>
+      </c>
+      <c r="I6">
+        <f>STDEV(C6:E6)</f>
+        <v>2.2920975953822662</v>
+      </c>
+      <c r="J6">
+        <f>I6/H6*100</f>
+        <v>2.5690133963638355</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>81.886197264615248</v>
+      </c>
+      <c r="D7">
+        <v>83.739140146991787</v>
+      </c>
+      <c r="E7">
+        <v>83.590456973737332</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H12" si="0">AVERAGE(C7:E7)</f>
+        <v>83.07193146178146</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I12" si="1">STDEV(C7:E7)</f>
+        <v>1.0295634323582479</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J36" si="2">I7/H7*100</f>
+        <v>1.2393637829787485</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L8" si="3">ABS(100-H7*100/$H$6)</f>
+        <v>6.8918770225650547</v>
+      </c>
+      <c r="M7" s="11">
+        <f>TTEST($C$6:$E$6,C7:E7,2,1)</f>
+        <v>1.4205730693487365E-2</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>88.924773362991459</v>
+      </c>
+      <c r="D8">
+        <v>88.94803842299882</v>
+      </c>
+      <c r="E8">
+        <v>84.342199309377307</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>87.405003698455857</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>2.6524919151758848</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>3.0347140357397469</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>2.0353121686709414</v>
+      </c>
+      <c r="M8" s="11">
+        <f>TTEST($C$6:$E$6,C8:E8,2,1)</f>
+        <v>0.51239369984408256</v>
+      </c>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="11"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>28.039055185685687</v>
+      </c>
+      <c r="D10">
+        <v>27.600129022823285</v>
+      </c>
+      <c r="E10">
+        <v>25.733623347294014</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>27.124269185267661</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.2241674432512697</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>4.5131812949127008</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>33.907576428266538</v>
+      </c>
+      <c r="D11">
+        <v>33.090289293292024</v>
+      </c>
+      <c r="E11">
+        <v>34.267193271422364</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>33.755019664326973</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.60310108448131539</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1.7867004388644618</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L12" si="4">ABS(100-H11*100/$H$10)</f>
+        <v>24.445821687467827</v>
+      </c>
+      <c r="M11" s="11">
+        <f>TTEST($C$10:$E$10,C11:E11,2,1)</f>
+        <v>2.0228364989554173E-2</v>
+      </c>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>28.175184789667295</v>
+      </c>
+      <c r="D12">
+        <v>28.283063963640014</v>
+      </c>
+      <c r="E12">
+        <v>28.230353082231908</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>28.229533945179739</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>5.394425162509664E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.19109154168061548</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>4.0748185780149697</v>
+      </c>
+      <c r="M12" s="11">
+        <f>TTEST($C$10:$E$10,C12:E12,2,1)</f>
+        <v>0.26143647418421256</v>
+      </c>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>19.679975171270382</v>
+      </c>
+      <c r="D18">
+        <v>22.241693045108423</v>
+      </c>
+      <c r="E18">
+        <v>19.967588299816242</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(C18:E18)</f>
+        <v>20.629752172065015</v>
+      </c>
+      <c r="I18">
+        <f>STDEV(C18:E18)</f>
+        <v>1.4033692890928395</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>6.8026473482951388</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>17.873540852670395</v>
+      </c>
+      <c r="D19">
+        <v>21.111571982877273</v>
+      </c>
+      <c r="E19">
+        <v>21.060297530797463</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H24" si="5">AVERAGE(C19:E19)</f>
+        <v>20.01513678878171</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I24" si="6">STDEV(C19:E19)</f>
+        <v>1.8548536687661905</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>9.2672545201180831</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L20" si="7">ABS(100-H19*100/$H$18)</f>
+        <v>2.979266925540486</v>
+      </c>
+      <c r="M19">
+        <f>TTEST($C$18:$E$18,C19:E19,2,1)</f>
+        <v>0.55545025695825256</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>21.566100942890845</v>
+      </c>
+      <c r="D20">
+        <v>19.02493596236113</v>
+      </c>
+      <c r="E20">
+        <v>20.428104015079342</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>20.339713640110439</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>1.2728862904273905</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>6.2581327984737509</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>1.4059234911571963</v>
+      </c>
+      <c r="M20">
+        <f>TTEST($C$18:$E$18,C20:E20,2,1)</f>
+        <v>0.86629611647512228</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>4.9111540927092339</v>
+      </c>
+      <c r="D22">
+        <v>4.9246703439841264</v>
+      </c>
+      <c r="E22">
+        <v>4.8666708354959187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>4.9008317573964266</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>3.0346312806516437E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.61920739802416636</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23">
+        <v>5.0528662724738185</v>
+      </c>
+      <c r="D23">
+        <v>5.0763606124694309</v>
+      </c>
+      <c r="E23">
+        <v>5.0811705930782614</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>5.0701324926738378</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>1.5145155937162711E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.29871321822549857</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L24" si="8">ABS(100-H23*100/$H$22)</f>
+        <v>3.4545306523101829</v>
+      </c>
+      <c r="M23">
+        <f>TTEST($C$22:$E$22,C23:E23,2,1)</f>
+        <v>1.7630865811327615E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>5.1190106096055237</v>
+      </c>
+      <c r="D24">
+        <v>5.1470993678278187</v>
+      </c>
+      <c r="E24">
+        <v>4.9566112999582241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>5.0742404257971883</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>0.10283337502409849</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>2.0265767168086612</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>3.5383517938368385</v>
+      </c>
+      <c r="M24">
+        <f>TTEST($C$22:$E$22,C24:E24,2,1)</f>
+        <v>5.3829316593739018E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>25.313715665510735</v>
+      </c>
+      <c r="D30">
+        <v>24.258821955331513</v>
+      </c>
+      <c r="E30">
+        <v>24.163866725997327</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(C30:E30)</f>
+        <v>24.578801448946525</v>
+      </c>
+      <c r="I30">
+        <f>STDEV(C30:E30)</f>
+        <v>0.63822276923940657</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>2.5966391020533734</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31">
+        <v>24.883606004078008</v>
+      </c>
+      <c r="D31">
+        <v>29.21193794556017</v>
+      </c>
+      <c r="E31">
+        <v>24.305252132787157</v>
+      </c>
+      <c r="G31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H36" si="9">AVERAGE(C31:E31)</f>
+        <v>26.133598694141778</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I36" si="10">STDEV(C31:E31)</f>
+        <v>2.6815578886585008</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>10.260959158524196</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L32" si="11">ABS(100-H31*100/$H$30)</f>
+        <v>6.3257651046361048</v>
+      </c>
+      <c r="M31">
+        <f>TTEST($C$30:$E$30,C31:E31,2,1)</f>
+        <v>0.45856154998643328</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>26.773754953612404</v>
+      </c>
+      <c r="D32">
+        <v>27.36087241556633</v>
+      </c>
+      <c r="E32">
+        <v>27.372932151018276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>27.169186506732334</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>0.34250685278826831</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>1.2606444904171037</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>10.539102417855432</v>
+      </c>
+      <c r="M32">
+        <f>TTEST($C$30:$E$30,C32:E32,2,1)</f>
+        <v>4.457694602897018E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>2.9019921721644075</v>
+      </c>
+      <c r="D34">
+        <v>3.193119457453693</v>
+      </c>
+      <c r="E34">
+        <v>2.8797189440721822</v>
+      </c>
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>2.9916101912300945</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="10"/>
+        <v>0.17486712799406287</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>5.8452511128183033</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>3.2887360713694411</v>
+      </c>
+      <c r="D35">
+        <v>3.3592475063975584</v>
+      </c>
+      <c r="E35">
+        <v>3.2812756532892626</v>
+      </c>
+      <c r="G35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>3.3097530770187542</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="10"/>
+        <v>4.3025438569907141E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>1.299959168212697</v>
+      </c>
+      <c r="L35">
+        <f>ABS(100-H35*100/$H$34)</f>
+        <v>10.634503342758208</v>
+      </c>
+      <c r="M35">
+        <f>TTEST($C$34:$E$34,C35:E35,2,1)</f>
+        <v>5.2767362934331707E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>3.1607302297076343</v>
+      </c>
+      <c r="D36">
+        <v>3.1301458469975199</v>
+      </c>
+      <c r="E36">
+        <v>3.0837604967190444</v>
+      </c>
+      <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>3.1248788578080657</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>3.8754236290050564E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>1.240183637622182</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36" si="12">ABS(100-H36*100/$H$34)</f>
+        <v>4.4547470445397011</v>
+      </c>
+      <c r="M36">
+        <f>TTEST($C$34:$E$34,C36:E36,2,1)</f>
+        <v>0.31193814667960296</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>43.903112214592369</v>
+      </c>
+      <c r="D44">
+        <v>44.62791132967935</v>
+      </c>
+      <c r="E44">
+        <v>43.62946948806745</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <f>AVERAGE(C44:E44)</f>
+        <v>44.053497677446387</v>
+      </c>
+      <c r="I44">
+        <f>STDEV(C44:E44)</f>
+        <v>0.51592961569259044</v>
+      </c>
+      <c r="J44">
+        <f>I44/H44*100</f>
+        <v>1.1711433663455184</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <v>42.580886106973715</v>
+      </c>
+      <c r="D45">
+        <v>43.80229783804257</v>
+      </c>
+      <c r="E45">
+        <v>42.868669725767184</v>
+      </c>
+      <c r="G45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45" si="13">AVERAGE(C45:E45)</f>
+        <v>43.083951223594489</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45" si="14">STDEV(C45:E45)</f>
+        <v>0.63853053699743323</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45" si="15">I45/H45*100</f>
+        <v>1.482061228979733</v>
+      </c>
+      <c r="L45">
+        <f>ABS(100-H45*100/$H$44)</f>
+        <v>2.2008387641562166</v>
+      </c>
+      <c r="M45">
+        <f>TTEST($C$44:$E$44,C45:E45,2,1)</f>
+        <v>3.1862097290462306E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47">
+        <v>15.190498821450566</v>
+      </c>
+      <c r="D47">
+        <v>17.240154135481038</v>
+      </c>
+      <c r="E47">
+        <v>17.225997565948216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H48" si="16">AVERAGE(C47:E47)</f>
+        <v>16.55221684095994</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:I48" si="17">STDEV(C47:E47)</f>
+        <v>1.1793036401231167</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47:J48" si="18">I47/H47*100</f>
+        <v>7.1247474066725882</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48">
+        <v>17.096940137496301</v>
+      </c>
+      <c r="D48">
+        <v>15.102852886266369</v>
+      </c>
+      <c r="E48">
+        <v>15.660129371538634</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="16"/>
+        <v>15.953307465100432</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="17"/>
+        <v>1.0288639547033587</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="18"/>
+        <v>6.4492203698456176</v>
+      </c>
+      <c r="L48">
+        <f>ABS(100-H48*100/$H$47)</f>
+        <v>3.6183031047385299</v>
+      </c>
+      <c r="M48">
+        <f>TTEST($C$47:$E$47,C48:E48,2,1)</f>
+        <v>0.68219931496604436</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>113</v>
+      </c>
+      <c r="L53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54">
+        <v>44.053497677446387</v>
+      </c>
+      <c r="I54">
+        <v>0.51592961569259044</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>43.083951223594489</v>
+      </c>
+      <c r="I55">
+        <v>0.63853053699743323</v>
+      </c>
+      <c r="L55">
+        <f>ABS(100-H55*100/$H$54)</f>
+        <v>2.2008387641562166</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56">
+        <v>40.83656095938062</v>
+      </c>
+      <c r="I56">
+        <v>7.007557757911341E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57">
+        <v>39.811331053167656</v>
+      </c>
+      <c r="L57">
+        <f>ABS(100-H57*100/$H$56)</f>
+        <v>2.5105686721091445</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58">
+        <v>33.057704983225939</v>
+      </c>
+      <c r="I58">
+        <v>0.80379016486830923</v>
+      </c>
+    </row>
+    <row r="59" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59">
+        <v>33.464004607027931</v>
+      </c>
+      <c r="L59">
+        <f>ABS(100-H59*100/$H$58)</f>
+        <v>1.2290617996868036</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60">
+        <v>27.398481749319586</v>
+      </c>
+      <c r="I60">
+        <v>0.61567354491634196</v>
+      </c>
+    </row>
+    <row r="61" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61">
+        <v>26.82020149912017</v>
+      </c>
+      <c r="L61">
+        <f>ABS(100-H61*100/$H$60)</f>
+        <v>2.110628813269102</v>
+      </c>
+    </row>
+    <row r="62" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62">
+        <v>16.55221684095994</v>
+      </c>
+      <c r="I62">
+        <v>1.1793036401231167</v>
+      </c>
+    </row>
+    <row r="63" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H63">
+        <v>15.953307465100432</v>
+      </c>
+      <c r="I63">
+        <v>1.0288639547033587</v>
+      </c>
+      <c r="L63">
+        <f>ABS(100-H63*100/$H$62)</f>
+        <v>3.6183031047385299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>